--- a/xlsx/保护知识产权法案_intext.xlsx
+++ b/xlsx/保护知识产权法案_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_保护知识产权法案</t>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_保护知识产权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%C2%B7%E6%9D%8E%E5%B8%8C</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E6%87%B7%E7%99%BB</t>
   </si>
   <si>
-    <t>榮·懷登</t>
+    <t>荣·怀登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%97%E7%89%88</t>
